--- a/data/ModelF_Bevacizumab_Params.xlsx
+++ b/data/ModelF_Bevacizumab_Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="22400" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="22400" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ModelF_Bevacizumab_Params.xlsx
+++ b/data/ModelF_Bevacizumab_Params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/IMA_TumorModeling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE22EEDE-6FDF-7A43-A890-D38E3F555B57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="22400" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="22400" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +75,7 @@
     <definedName name="VtumDS">Sheet1!$F$49</definedName>
     <definedName name="VtumS">Sheet1!$F$48</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
   <si>
     <t>Parameter</t>
   </si>
@@ -672,12 +673,15 @@
   </si>
   <si>
     <t>5 mg/kg dose (1200 mg)</t>
+  </si>
+  <si>
+    <t>guess/calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -871,377 +875,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <b val="0"/>
@@ -1504,6 +1138,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1723,21 +1377,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A1:J79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="46"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="45"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="44"/>
-    <tableColumn id="4" name="Description" dataDxfId="43"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="42"/>
-    <tableColumn id="6" name="Value" dataDxfId="41"/>
-    <tableColumn id="7" name="Units" dataDxfId="40"/>
-    <tableColumn id="8" name="Source" dataDxfId="39"/>
-    <tableColumn id="10" name="Formula" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2064,11 +1718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4001,21 +3655,21 @@
       <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="13">
         <f>k12D*VD3_/VD2_</f>
         <v>1.3782083291720764E-2</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" s="14" t="str">
+      <c r="H60" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k12D*VD3_/VD2_</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
@@ -4613,92 +4267,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="68" priority="32" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="67" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B54:B68 A79:H79 C67:H68 J35:K52 C35:E36 I67:K79 A4:A77 B4:K23 J29:K30 C39:H46 B69:H72">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:I1048576 H79 I67:I79 H1:I66 H67:H72">
-    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="28" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 I67:I79 H39:H52 H67:H72">
-    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="26" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="8" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$H9="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$H10="fit"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Bevacizumab_Params.xlsx
+++ b/data/ModelF_Bevacizumab_Params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE22EEDE-6FDF-7A43-A890-D38E3F555B57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD8492-F38B-A84F-BF46-E31D61606C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="22400" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <definedName name="VtumDS">Sheet1!$F$49</definedName>
     <definedName name="VtumS">Sheet1!$F$48</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="202">
   <si>
     <t>Parameter</t>
   </si>
@@ -676,13 +676,31 @@
   </si>
   <si>
     <t>guess/calc</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>used for Vlink model</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Tissue Volume</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -718,6 +736,12 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -775,7 +799,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,6 +873,18 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -875,7 +911,578 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1135,227 +1742,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1377,21 +1763,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J80" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="58">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1719,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4238,122 +4624,331 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="3">
+        <f>VD1_</f>
+        <v>3.23</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I78" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J78" s="9"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="3">
+        <f>VD2_</f>
+        <v>3.1</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I79" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J79" s="9"/>
+        <v>=VD2_</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="25">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" s="27">
+        <f>VD3_</f>
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="28" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F80),"")</f>
+        <v>=VD3_</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="derived">
-      <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
+  <conditionalFormatting sqref="F294">
+    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="derived">
+      <formula>NOT(ISERROR(SEARCH("derived",F294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B54:B68 A79:H79 C67:H68 J35:K52 C35:E36 I67:K79 A4:A77 B4:K23 J29:K30 C39:H46 B69:H72">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 B54:B68 C67:H68 J35:K52 C35:E36 I67:K77 A4:A77 B4:K23 J29:K30 C39:H46 B69:H72 A81:K1048576">
+    <cfRule type="containsText" dxfId="54" priority="64" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:I1048576 H79 I67:I79 H1:I66 H67:H72">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="literature">
+  <conditionalFormatting sqref="I67:I77 H1:I66 H67:H72 H81:I1048576">
+    <cfRule type="containsText" dxfId="53" priority="62" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="52" priority="63" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 I67:I79 H39:H52 H67:H72">
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 I67:I77 H39:H52 H67:H72 H81:I1048576">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="47" priority="61" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H1:H72 H81:H1048576">
+    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$H9="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$H10="fit"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:G80 I78:K80">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",A78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:I80">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:I80">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
